--- a/natmiOut/OldD7/LR-pairs_lrc2p/Hgf-Sdc1.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Hgf-Sdc1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Sdc1</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>14.6418778266445</v>
+        <v>0.1088396666666667</v>
       </c>
       <c r="H2">
-        <v>14.6418778266445</v>
+        <v>0.326519</v>
       </c>
       <c r="I2">
-        <v>0.3979075416502982</v>
+        <v>0.002750770615347974</v>
       </c>
       <c r="J2">
-        <v>0.3979075416502982</v>
+        <v>0.002750770615347974</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.739198525043266</v>
+        <v>1.378475333333333</v>
       </c>
       <c r="N2">
-        <v>0.739198525043266</v>
+        <v>4.135426</v>
       </c>
       <c r="O2">
-        <v>0.031953473274758</v>
+        <v>0.05609715574531157</v>
       </c>
       <c r="P2">
-        <v>0.031953473274758</v>
+        <v>0.05609715574531156</v>
       </c>
       <c r="Q2">
-        <v>10.82325449331931</v>
+        <v>0.1500327957882222</v>
       </c>
       <c r="R2">
-        <v>10.82325449331931</v>
+        <v>1.350295162094</v>
       </c>
       <c r="S2">
-        <v>0.01271452799794746</v>
+        <v>0.0001543104076288018</v>
       </c>
       <c r="T2">
-        <v>0.01271452799794746</v>
+        <v>0.0001543104076288018</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>14.6418778266445</v>
+        <v>0.1088396666666667</v>
       </c>
       <c r="H3">
-        <v>14.6418778266445</v>
+        <v>0.326519</v>
       </c>
       <c r="I3">
-        <v>0.3979075416502982</v>
+        <v>0.002750770615347974</v>
       </c>
       <c r="J3">
-        <v>0.3979075416502982</v>
+        <v>0.002750770615347974</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>13.1475784915411</v>
+        <v>13.16176133333333</v>
       </c>
       <c r="N3">
-        <v>13.1475784915411</v>
+        <v>39.485284</v>
       </c>
       <c r="O3">
-        <v>0.5683328412115705</v>
+        <v>0.5356188518899525</v>
       </c>
       <c r="P3">
-        <v>0.5683328412115705</v>
+        <v>0.5356188518899525</v>
       </c>
       <c r="Q3">
-        <v>192.5052379893638</v>
+        <v>1.432521716266222</v>
       </c>
       <c r="R3">
-        <v>192.5052379893638</v>
+        <v>12.892695446396</v>
       </c>
       <c r="S3">
-        <v>0.2261439236856253</v>
+        <v>0.0014733645988053</v>
       </c>
       <c r="T3">
-        <v>0.2261439236856253</v>
+        <v>0.0014733645988053</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>14.6418778266445</v>
+        <v>0.1088396666666667</v>
       </c>
       <c r="H4">
-        <v>14.6418778266445</v>
+        <v>0.326519</v>
       </c>
       <c r="I4">
-        <v>0.3979075416502982</v>
+        <v>0.002750770615347974</v>
       </c>
       <c r="J4">
-        <v>0.3979075416502982</v>
+        <v>0.002750770615347974</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.7157609761489629</v>
+        <v>0.829094</v>
       </c>
       <c r="N4">
-        <v>0.7157609761489629</v>
+        <v>2.487282</v>
       </c>
       <c r="O4">
-        <v>0.03094033395311756</v>
+        <v>0.03374004171190829</v>
       </c>
       <c r="P4">
-        <v>0.03094033395311756</v>
+        <v>0.03374004171190828</v>
       </c>
       <c r="Q4">
-        <v>10.48008476585292</v>
+        <v>0.09023831459533334</v>
       </c>
       <c r="R4">
-        <v>10.48008476585292</v>
+        <v>0.812144831358</v>
       </c>
       <c r="S4">
-        <v>0.01231139222112426</v>
+        <v>9.281111530173226E-05</v>
       </c>
       <c r="T4">
-        <v>0.01231139222112426</v>
+        <v>9.281111530173225E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>14.6418778266445</v>
+        <v>0.1088396666666667</v>
       </c>
       <c r="H5">
-        <v>14.6418778266445</v>
+        <v>0.326519</v>
       </c>
       <c r="I5">
-        <v>0.3979075416502982</v>
+        <v>0.002750770615347974</v>
       </c>
       <c r="J5">
-        <v>0.3979075416502982</v>
+        <v>0.002750770615347974</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.53105123204757</v>
+        <v>9.203668</v>
       </c>
       <c r="N5">
-        <v>8.53105123204757</v>
+        <v>27.611004</v>
       </c>
       <c r="O5">
-        <v>0.368773351560554</v>
+        <v>0.3745439506528278</v>
       </c>
       <c r="P5">
-        <v>0.368773351560554</v>
+        <v>0.3745439506528276</v>
       </c>
       <c r="Q5">
-        <v>124.9106098724856</v>
+        <v>1.001724157230667</v>
       </c>
       <c r="R5">
-        <v>124.9106098724856</v>
+        <v>9.015517415076001</v>
       </c>
       <c r="S5">
-        <v>0.1467376977456012</v>
+        <v>0.00103028449361214</v>
       </c>
       <c r="T5">
-        <v>0.1467376977456012</v>
+        <v>0.00103028449361214</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>21.7291416929397</v>
+        <v>15.07419333333333</v>
       </c>
       <c r="H6">
-        <v>21.7291416929397</v>
+        <v>45.22258</v>
       </c>
       <c r="I6">
-        <v>0.5905109614748162</v>
+        <v>0.3809791902285103</v>
       </c>
       <c r="J6">
-        <v>0.5905109614748162</v>
+        <v>0.3809791902285103</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.739198525043266</v>
+        <v>1.378475333333333</v>
       </c>
       <c r="N6">
-        <v>0.739198525043266</v>
+        <v>4.135426</v>
       </c>
       <c r="O6">
-        <v>0.031953473274758</v>
+        <v>0.05609715574531157</v>
       </c>
       <c r="P6">
-        <v>0.031953473274758</v>
+        <v>0.05609715574531156</v>
       </c>
       <c r="Q6">
-        <v>16.06214948987716</v>
+        <v>20.77940367989778</v>
       </c>
       <c r="R6">
-        <v>16.06214948987716</v>
+        <v>187.01463311908</v>
       </c>
       <c r="S6">
-        <v>0.01886887622593719</v>
+        <v>0.02137184896997143</v>
       </c>
       <c r="T6">
-        <v>0.01886887622593719</v>
+        <v>0.02137184896997142</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>21.7291416929397</v>
+        <v>15.07419333333333</v>
       </c>
       <c r="H7">
-        <v>21.7291416929397</v>
+        <v>45.22258</v>
       </c>
       <c r="I7">
-        <v>0.5905109614748162</v>
+        <v>0.3809791902285103</v>
       </c>
       <c r="J7">
-        <v>0.5905109614748162</v>
+        <v>0.3809791902285103</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>13.1475784915411</v>
+        <v>13.16176133333333</v>
       </c>
       <c r="N7">
-        <v>13.1475784915411</v>
+        <v>39.485284</v>
       </c>
       <c r="O7">
-        <v>0.5683328412115705</v>
+        <v>0.5356188518899525</v>
       </c>
       <c r="P7">
-        <v>0.5683328412115705</v>
+        <v>0.5356188518899525</v>
       </c>
       <c r="Q7">
-        <v>285.6855959617429</v>
+        <v>198.4029349458578</v>
       </c>
       <c r="R7">
-        <v>285.6855959617429</v>
+        <v>1785.62641451272</v>
       </c>
       <c r="S7">
-        <v>0.3356067725015585</v>
+        <v>0.2040596364641585</v>
       </c>
       <c r="T7">
-        <v>0.3356067725015585</v>
+        <v>0.2040596364641585</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>21.7291416929397</v>
+        <v>15.07419333333333</v>
       </c>
       <c r="H8">
-        <v>21.7291416929397</v>
+        <v>45.22258</v>
       </c>
       <c r="I8">
-        <v>0.5905109614748162</v>
+        <v>0.3809791902285103</v>
       </c>
       <c r="J8">
-        <v>0.5905109614748162</v>
+        <v>0.3809791902285103</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.7157609761489629</v>
+        <v>0.829094</v>
       </c>
       <c r="N8">
-        <v>0.7157609761489629</v>
+        <v>2.487282</v>
       </c>
       <c r="O8">
-        <v>0.03094033395311756</v>
+        <v>0.03374004171190829</v>
       </c>
       <c r="P8">
-        <v>0.03094033395311756</v>
+        <v>0.03374004171190828</v>
       </c>
       <c r="Q8">
-        <v>15.55287166901765</v>
+        <v>12.49792324750667</v>
       </c>
       <c r="R8">
-        <v>15.55287166901765</v>
+        <v>112.48130922756</v>
       </c>
       <c r="S8">
-        <v>0.01827060635100735</v>
+        <v>0.01285425376967898</v>
       </c>
       <c r="T8">
-        <v>0.01827060635100735</v>
+        <v>0.01285425376967898</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>21.7291416929397</v>
+        <v>15.07419333333333</v>
       </c>
       <c r="H9">
-        <v>21.7291416929397</v>
+        <v>45.22258</v>
       </c>
       <c r="I9">
-        <v>0.5905109614748162</v>
+        <v>0.3809791902285103</v>
       </c>
       <c r="J9">
-        <v>0.5905109614748162</v>
+        <v>0.3809791902285103</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>8.53105123204757</v>
+        <v>9.203668</v>
       </c>
       <c r="N9">
-        <v>8.53105123204757</v>
+        <v>27.611004</v>
       </c>
       <c r="O9">
-        <v>0.368773351560554</v>
+        <v>0.3745439506528278</v>
       </c>
       <c r="P9">
-        <v>0.368773351560554</v>
+        <v>0.3745439506528276</v>
       </c>
       <c r="Q9">
-        <v>185.3724210108894</v>
+        <v>138.7378708078134</v>
       </c>
       <c r="R9">
-        <v>185.3724210108894</v>
+        <v>1248.64083727032</v>
       </c>
       <c r="S9">
-        <v>0.2177647063963132</v>
+        <v>0.1426934510247015</v>
       </c>
       <c r="T9">
-        <v>0.2177647063963132</v>
+        <v>0.1426934510247014</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,61 +1018,61 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.426166494830532</v>
+        <v>23.69325166666667</v>
       </c>
       <c r="H10">
-        <v>0.426166494830532</v>
+        <v>71.07975500000001</v>
       </c>
       <c r="I10">
-        <v>0.0115814968748857</v>
+        <v>0.5988138558556568</v>
       </c>
       <c r="J10">
-        <v>0.0115814968748857</v>
+        <v>0.5988138558556569</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.739198525043266</v>
+        <v>1.378475333333333</v>
       </c>
       <c r="N10">
-        <v>0.739198525043266</v>
+        <v>4.135426</v>
       </c>
       <c r="O10">
-        <v>0.031953473274758</v>
+        <v>0.05609715574531157</v>
       </c>
       <c r="P10">
-        <v>0.031953473274758</v>
+        <v>0.05609715574531156</v>
       </c>
       <c r="Q10">
-        <v>0.3150216444015879</v>
+        <v>32.66056298895889</v>
       </c>
       <c r="R10">
-        <v>0.3150216444015879</v>
+        <v>293.94506690063</v>
       </c>
       <c r="S10">
-        <v>0.0003700690508733535</v>
+        <v>0.03359175413438533</v>
       </c>
       <c r="T10">
-        <v>0.0003700690508733535</v>
+        <v>0.03359175413438533</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,61 +1080,61 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.426166494830532</v>
+        <v>23.69325166666667</v>
       </c>
       <c r="H11">
-        <v>0.426166494830532</v>
+        <v>71.07975500000001</v>
       </c>
       <c r="I11">
-        <v>0.0115814968748857</v>
+        <v>0.5988138558556568</v>
       </c>
       <c r="J11">
-        <v>0.0115814968748857</v>
+        <v>0.5988138558556569</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>13.1475784915411</v>
+        <v>13.16176133333333</v>
       </c>
       <c r="N11">
-        <v>13.1475784915411</v>
+        <v>39.485284</v>
       </c>
       <c r="O11">
-        <v>0.5683328412115705</v>
+        <v>0.5356188518899525</v>
       </c>
       <c r="P11">
-        <v>0.5683328412115705</v>
+        <v>0.5356188518899525</v>
       </c>
       <c r="Q11">
-        <v>5.603057441249364</v>
+        <v>311.8449236472689</v>
       </c>
       <c r="R11">
-        <v>5.603057441249364</v>
+        <v>2806.60431282542</v>
       </c>
       <c r="S11">
-        <v>0.006582145024386714</v>
+        <v>0.3207359899692024</v>
       </c>
       <c r="T11">
-        <v>0.006582145024386714</v>
+        <v>0.3207359899692025</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,61 +1142,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.426166494830532</v>
+        <v>23.69325166666667</v>
       </c>
       <c r="H12">
-        <v>0.426166494830532</v>
+        <v>71.07975500000001</v>
       </c>
       <c r="I12">
-        <v>0.0115814968748857</v>
+        <v>0.5988138558556568</v>
       </c>
       <c r="J12">
-        <v>0.0115814968748857</v>
+        <v>0.5988138558556569</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.7157609761489629</v>
+        <v>0.829094</v>
       </c>
       <c r="N12">
-        <v>0.7157609761489629</v>
+        <v>2.487282</v>
       </c>
       <c r="O12">
-        <v>0.03094033395311756</v>
+        <v>0.03374004171190829</v>
       </c>
       <c r="P12">
-        <v>0.03094033395311756</v>
+        <v>0.03374004171190828</v>
       </c>
       <c r="Q12">
-        <v>0.3050333463418836</v>
+        <v>19.64393279732333</v>
       </c>
       <c r="R12">
-        <v>0.3050333463418836</v>
+        <v>176.79539517591</v>
       </c>
       <c r="S12">
-        <v>0.0003583353809859509</v>
+        <v>0.0202040044742385</v>
       </c>
       <c r="T12">
-        <v>0.0003583353809859509</v>
+        <v>0.0202040044742385</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1204,309 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>23.69325166666667</v>
+      </c>
+      <c r="H13">
+        <v>71.07975500000001</v>
+      </c>
+      <c r="I13">
+        <v>0.5988138558556568</v>
+      </c>
+      <c r="J13">
+        <v>0.5988138558556569</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>9.203668</v>
+      </c>
+      <c r="N13">
+        <v>27.611004</v>
+      </c>
+      <c r="O13">
+        <v>0.3745439506528278</v>
+      </c>
+      <c r="P13">
+        <v>0.3745439506528276</v>
+      </c>
+      <c r="Q13">
+        <v>218.0648221804467</v>
+      </c>
+      <c r="R13">
+        <v>1962.58339962402</v>
+      </c>
+      <c r="S13">
+        <v>0.2242821072778306</v>
+      </c>
+      <c r="T13">
+        <v>0.2242821072778306</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.6906883333333335</v>
+      </c>
+      <c r="H14">
+        <v>2.072065</v>
+      </c>
+      <c r="I14">
+        <v>0.01745618330048481</v>
+      </c>
+      <c r="J14">
+        <v>0.01745618330048481</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>1.378475333333333</v>
+      </c>
+      <c r="N14">
+        <v>4.135426</v>
+      </c>
+      <c r="O14">
+        <v>0.05609715574531157</v>
+      </c>
+      <c r="P14">
+        <v>0.05609715574531156</v>
+      </c>
+      <c r="Q14">
+        <v>0.9520968305211113</v>
+      </c>
+      <c r="R14">
+        <v>8.568871474690001</v>
+      </c>
+      <c r="S14">
+        <v>0.0009792422333260032</v>
+      </c>
+      <c r="T14">
+        <v>0.0009792422333260032</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.6906883333333335</v>
+      </c>
+      <c r="H15">
+        <v>2.072065</v>
+      </c>
+      <c r="I15">
+        <v>0.01745618330048481</v>
+      </c>
+      <c r="J15">
+        <v>0.01745618330048481</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>13.16176133333333</v>
+      </c>
+      <c r="N15">
+        <v>39.485284</v>
+      </c>
+      <c r="O15">
+        <v>0.5356188518899525</v>
+      </c>
+      <c r="P15">
+        <v>0.5356188518899525</v>
+      </c>
+      <c r="Q15">
+        <v>9.090674999051112</v>
+      </c>
+      <c r="R15">
+        <v>81.81607499146001</v>
+      </c>
+      <c r="S15">
+        <v>0.009349860857786236</v>
+      </c>
+      <c r="T15">
+        <v>0.009349860857786236</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0.426166494830532</v>
-      </c>
-      <c r="H13">
-        <v>0.426166494830532</v>
-      </c>
-      <c r="I13">
-        <v>0.0115814968748857</v>
-      </c>
-      <c r="J13">
-        <v>0.0115814968748857</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>8.53105123204757</v>
-      </c>
-      <c r="N13">
-        <v>8.53105123204757</v>
-      </c>
-      <c r="O13">
-        <v>0.368773351560554</v>
-      </c>
-      <c r="P13">
-        <v>0.368773351560554</v>
-      </c>
-      <c r="Q13">
-        <v>3.635648200781404</v>
-      </c>
-      <c r="R13">
-        <v>3.635648200781404</v>
-      </c>
-      <c r="S13">
-        <v>0.004270947418639682</v>
-      </c>
-      <c r="T13">
-        <v>0.004270947418639682</v>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.6906883333333335</v>
+      </c>
+      <c r="H16">
+        <v>2.072065</v>
+      </c>
+      <c r="I16">
+        <v>0.01745618330048481</v>
+      </c>
+      <c r="J16">
+        <v>0.01745618330048481</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.829094</v>
+      </c>
+      <c r="N16">
+        <v>2.487282</v>
+      </c>
+      <c r="O16">
+        <v>0.03374004171190829</v>
+      </c>
+      <c r="P16">
+        <v>0.03374004171190828</v>
+      </c>
+      <c r="Q16">
+        <v>0.5726455530366668</v>
+      </c>
+      <c r="R16">
+        <v>5.153809977330001</v>
+      </c>
+      <c r="S16">
+        <v>0.0005889723526890744</v>
+      </c>
+      <c r="T16">
+        <v>0.0005889723526890742</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.6906883333333335</v>
+      </c>
+      <c r="H17">
+        <v>2.072065</v>
+      </c>
+      <c r="I17">
+        <v>0.01745618330048481</v>
+      </c>
+      <c r="J17">
+        <v>0.01745618330048481</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>9.203668</v>
+      </c>
+      <c r="N17">
+        <v>27.611004</v>
+      </c>
+      <c r="O17">
+        <v>0.3745439506528278</v>
+      </c>
+      <c r="P17">
+        <v>0.3745439506528276</v>
+      </c>
+      <c r="Q17">
+        <v>6.356866111473335</v>
+      </c>
+      <c r="R17">
+        <v>57.21179500326001</v>
+      </c>
+      <c r="S17">
+        <v>0.006538107856683499</v>
+      </c>
+      <c r="T17">
+        <v>0.006538107856683497</v>
       </c>
     </row>
   </sheetData>
